--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{0F3A60A1-84A9-465C-BEFA-74C1E704179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCC9691-AD82-45D2-B7C9-6C99467629E1}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{0F3A60A1-84A9-465C-BEFA-74C1E704179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9633CE29-B2B6-4F93-A40F-EA67D1725BF5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92989212-AE29-4495-A8D8-D6A82276A65A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -159,6 +159,36 @@
   </si>
   <si>
     <t>The Grange School</t>
+  </si>
+  <si>
+    <t>TC000</t>
+  </si>
+  <si>
+    <t>NoFirst</t>
+  </si>
+  <si>
+    <t>NoLast</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>ConsentNotGivenReason</t>
+  </si>
+  <si>
+    <t>ConsentNotGivenDetails</t>
+  </si>
+  <si>
+    <t>Vaccine already received</t>
+  </si>
+  <si>
+    <t>Vaccine already received in previous school</t>
+  </si>
+  <si>
+    <t>Your child will not get an HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -233,8 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,11 +580,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB71496-7C17-40DE-A643-7B985DED7511}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -577,10 +605,12 @@
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,20 +675,26 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="2">
         <v>23</v>
       </c>
@@ -668,7 +704,7 @@
       <c r="G2" s="2">
         <v>2010</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -677,38 +713,34 @@
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -726,8 +758,8 @@
       <c r="G3" s="2">
         <v>2010</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
@@ -735,12 +767,12 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="b">
-        <v>1</v>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>27</v>
@@ -757,44 +789,82 @@
       <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2010</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -817,8 +887,10 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -841,8 +913,10 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -865,8 +939,10 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -889,8 +965,10 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -913,8 +991,10 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -937,8 +1017,10 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -961,8 +1043,10 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -985,8 +1069,10 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1009,8 +1095,10 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1033,8 +1121,10 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1057,8 +1147,10 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1081,8 +1173,10 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1105,8 +1199,10 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1129,8 +1225,10 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1153,8 +1251,10 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1177,8 +1277,10 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1201,8 +1303,10 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1225,8 +1329,10 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1249,38 +1355,17 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{ABD27CCF-F36B-4D3B-A7CF-C1B467B6641D}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{371E95A6-7463-41FA-96F4-60655DF3C892}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{ABD27CCF-F36B-4D3B-A7CF-C1B467B6641D}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{371E95A6-7463-41FA-96F4-60655DF3C892}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{BA25009A-6E89-4B25-88A8-6964B6F34FD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -97,39 +97,42 @@
     <t>NoLast</t>
   </si>
   <si>
+    <t>St Mary Magdalene Academy</t>
+  </si>
+  <si>
+    <t>Parent Full</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>aldkfj@example.com</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Vaccine already received</t>
+  </si>
+  <si>
+    <t>Vaccine already received in previous school</t>
+  </si>
+  <si>
+    <t>Your child will not get an HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>002_ChangeSchool</t>
+  </si>
+  <si>
+    <t>ChildFirst</t>
+  </si>
+  <si>
+    <t>ChildLast</t>
+  </si>
+  <si>
     <t>Chaigeley School</t>
   </si>
   <si>
-    <t>Parent Full</t>
-  </si>
-  <si>
-    <t>Dad</t>
-  </si>
-  <si>
-    <t>aldkfj@example.com</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>Vaccine already received</t>
-  </si>
-  <si>
-    <t>Vaccine already received in previous school</t>
-  </si>
-  <si>
-    <t>Your child will not get an HPV vaccination at school</t>
-  </si>
-  <si>
-    <t>002_ChangeSchool</t>
-  </si>
-  <si>
-    <t>ChildFirst</t>
-  </si>
-  <si>
-    <t>ChildLast</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -148,13 +151,10 @@
     <t>AA1 1AA</t>
   </si>
   <si>
-    <t>ChildFirst ChildLast will get their HPV vaccination at school on 11 October 2024</t>
+    <t>ChildFirst ChildLast will get their HPV vaccination at school on 30 August 2025</t>
   </si>
   <si>
     <t>003_ExpectedSchool</t>
-  </si>
-  <si>
-    <t>Parkroyal Community School</t>
   </si>
   <si>
     <t>MyAllergy</t>
@@ -749,7 +749,7 @@
         <v>2010</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>28</v>
@@ -762,22 +762,22 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -785,12 +785,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
@@ -809,7 +809,7 @@
         <v>2010</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>28</v>
@@ -822,22 +822,22 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>47</v>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_29F4BEC526DD307450581A09FAD5CF0CBACAFCC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52661E9E-A9FD-446A-B467-5A7CB1FE6BBB}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -172,8 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -212,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2f5597"/>
+        <fgColor rgb="FF2F5597"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,37 +249,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -285,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -326,71 +334,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,7 +426,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -441,11 +449,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -454,13 +462,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -470,7 +478,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -479,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -488,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,10 +504,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -564,43 +572,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="41.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="69.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -728,7 +736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -788,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -854,7 +862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -880,7 +888,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -906,7 +914,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -932,7 +940,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -958,7 +966,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -984,7 +992,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1010,7 +1018,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1036,7 +1044,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1062,7 +1070,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1088,7 +1096,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1114,7 +1122,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1140,7 +1148,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1166,7 +1174,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1192,7 +1200,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1218,7 +1226,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1244,7 +1252,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1270,7 +1278,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1296,7 +1304,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1322,7 +1330,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_29F4BEC526DD307450581A09FAD5CF0CBACAFCC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52661E9E-A9FD-446A-B467-5A7CB1FE6BBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,7 +97,7 @@
     <t>NoLast</t>
   </si>
   <si>
-    <t>St Mary Magdalene Academy</t>
+    <t>Winslow County Secondary School</t>
   </si>
   <si>
     <t>Parent Full</t>
@@ -136,7 +130,7 @@
     <t>ChildLast</t>
   </si>
   <si>
-    <t>Chaigeley School</t>
+    <t>Pearson Primary School</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +151,7 @@
     <t>AA1 1AA</t>
   </si>
   <si>
-    <t>ChildFirst ChildLast will get their HPV vaccination at school on 30 August 2025</t>
+    <t>ChildFirst ChildLast will get their HPV vaccination at school</t>
   </si>
   <si>
     <t>003_ExpectedSchool</t>
@@ -178,7 +172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -217,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2F5597"/>
+        <fgColor rgb="FF2f5597"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,40 +244,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,10 +285,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -334,71 +326,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,7 +418,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -449,11 +441,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -462,13 +454,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,7 +470,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -487,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,10 +496,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -572,43 +564,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="69.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -736,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -796,7 +788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -862,7 +854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -888,7 +880,7 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -914,7 +906,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -940,7 +932,7 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -966,7 +958,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -992,7 +984,7 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1018,7 +1010,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1044,7 +1036,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1070,7 +1062,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1096,7 +1088,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1122,7 +1114,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1148,7 +1140,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1174,7 +1166,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1200,7 +1192,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1226,7 +1218,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1252,7 +1244,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1278,7 +1270,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1304,7 +1296,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1330,7 +1322,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -97,7 +97,7 @@
     <t>NoLast</t>
   </si>
   <si>
-    <t>St Mary Magdalene Academy</t>
+    <t>Winslow County Secondary School</t>
   </si>
   <si>
     <t>Parent Full</t>
@@ -130,7 +130,7 @@
     <t>ChildLast</t>
   </si>
   <si>
-    <t>Chaigeley School</t>
+    <t>Pearson Primary School</t>
   </si>
   <si>
     <t>True</t>
@@ -151,7 +151,7 @@
     <t>AA1 1AA</t>
   </si>
   <si>
-    <t>ChildFirst ChildLast will get their HPV vaccination at school on 30 August 2025</t>
+    <t>ChildFirst ChildLast will get their HPV vaccination at school</t>
   </si>
   <si>
     <t>003_ExpectedSchool</t>
@@ -574,10 +574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="41.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -25,7 +25,10 @@
     <t>ChildLastName</t>
   </si>
   <si>
-    <t>ChildAKA</t>
+    <t>ChildAKAFirst</t>
+  </si>
+  <si>
+    <t>ChildAKALast</t>
   </si>
   <si>
     <t>ChildDobDay</t>
@@ -243,10 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,6 +268,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -568,36 +577,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -610,19 +620,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -673,680 +683,705 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4">
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
         <v>23</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="5">
         <v>2010</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="Y2" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>23</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="5">
         <v>2010</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2010</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2010</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>NoLast</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Winslow County Secondary School</t>
@@ -246,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -259,6 +262,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -583,31 +589,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -697,691 +703,693 @@
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>23</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>2010</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
         <v>23</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>2010</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="L3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
       <c r="Y3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>23</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>12</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>2010</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
       <c r="Y4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -100,10 +100,7 @@
     <t>NoLast</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Winslow County Secondary School</t>
+    <t>Bohunt School Wokingham</t>
   </si>
   <si>
     <t>Parent Full</t>
@@ -136,7 +133,7 @@
     <t>ChildLast</t>
   </si>
   <si>
-    <t>Pearson Primary School</t>
+    <t>Caythorpe Primary School</t>
   </si>
   <si>
     <t>True</t>
@@ -249,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,9 +259,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -589,31 +583,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -703,693 +697,691 @@
       <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2010</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2010</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2010</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2010</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2010</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2010</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="4" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -82,6 +82,9 @@
     <t>ReactionDetails</t>
   </si>
   <si>
+    <t>ExtraSupportDetails</t>
+  </si>
+  <si>
     <t>ConsentNotGivenReason</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>MyReaction</t>
+  </si>
+  <si>
+    <t>MyExtraSupport</t>
   </si>
   <si>
     <t>You’ve given consent for your child to get an HPV vaccination</t>
@@ -577,7 +583,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -605,9 +611,10 @@
     <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -677,7 +684,7 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -686,16 +693,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
@@ -709,20 +719,20 @@
         <v>2010</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -732,25 +742,26 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="W2" s="2"/>
       <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="Z2" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
@@ -764,54 +775,55 @@
         <v>2010</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="W3" s="2"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="4" t="s">
-        <v>46</v>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
@@ -825,49 +837,52 @@
         <v>2010</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="X4" s="5"/>
-      <c r="Y4" s="4" t="s">
-        <v>51</v>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -893,9 +908,10 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5"/>
@@ -920,9 +936,10 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
@@ -947,9 +964,10 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5"/>
@@ -974,9 +992,10 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5"/>
@@ -1001,9 +1020,10 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5"/>
@@ -1028,9 +1048,10 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
@@ -1055,9 +1076,10 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
@@ -1082,9 +1104,10 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
@@ -1109,9 +1132,10 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
@@ -1136,9 +1160,10 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
@@ -1163,9 +1188,10 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
@@ -1190,9 +1216,10 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
@@ -1217,9 +1244,10 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
@@ -1244,9 +1272,10 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
@@ -1271,9 +1300,10 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5"/>
@@ -1298,9 +1328,10 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5"/>
@@ -1325,9 +1356,10 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5"/>
@@ -1352,9 +1384,10 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="5"/>
@@ -1379,9 +1412,10 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -97,10 +97,10 @@
     <t>001_DeclineConsent</t>
   </si>
   <si>
-    <t>NoFirst</t>
-  </si>
-  <si>
-    <t>NoLast</t>
+    <t>LIEN</t>
+  </si>
+  <si>
+    <t>MAH</t>
   </si>
   <si>
     <t>Bohunt School Wokingham</t>
@@ -130,10 +130,10 @@
     <t>002_ChangeSchool</t>
   </si>
   <si>
-    <t>ChildFirst</t>
-  </si>
-  <si>
-    <t>ChildLast</t>
+    <t>MIKALA</t>
+  </si>
+  <si>
+    <t>BANTON</t>
   </si>
   <si>
     <t>Caythorpe Primary School</t>
@@ -145,22 +145,40 @@
     <t>My GP</t>
   </si>
   <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>City1</t>
-  </si>
-  <si>
-    <t>AA1 1AA</t>
+    <t>28 DEADMANS LANE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DERBY</t>
+  </si>
+  <si>
+    <t>DE24 8WE</t>
   </si>
   <si>
     <t>ChildFirst ChildLast will get their HPV vaccination at school</t>
   </si>
   <si>
     <t>003_ExpectedSchool</t>
+  </si>
+  <si>
+    <t>ABBY</t>
+  </si>
+  <si>
+    <t>RESTON</t>
+  </si>
+  <si>
+    <t>3 CUCKOO HOLT</t>
+  </si>
+  <si>
+    <t>GATEFORD</t>
+  </si>
+  <si>
+    <t>NOTTS</t>
+  </si>
+  <si>
+    <t>S81 8TN</t>
   </si>
   <si>
     <t>MyAllergy</t>
@@ -252,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,6 +288,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -589,32 +610,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="8" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -710,13 +731,13 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>29</v>
@@ -766,13 +787,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>40</v>
@@ -796,7 +817,7 @@
       <c r="P3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -820,10 +841,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
@@ -831,10 +852,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>29</v>
@@ -856,33 +877,33 @@
         <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -136,7 +136,7 @@
     <t>BANTON</t>
   </si>
   <si>
-    <t>Caythorpe Primary School</t>
+    <t>Ravensdale Junior Schoo</t>
   </si>
   <si>
     <t>True</t>
@@ -148,16 +148,13 @@
     <t>28 DEADMANS LANE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DERBY</t>
   </si>
   <si>
     <t>DE24 8WE</t>
   </si>
   <si>
-    <t>ChildFirst ChildLast will get their HPV vaccination at school</t>
+    <t>MIKALA BANTON will get their HPV vaccination at school</t>
   </si>
   <si>
     <t>003_ExpectedSchool</t>
@@ -270,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,9 +285,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -610,32 +604,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="69.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="69.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -817,14 +811,12 @@
       <c r="P3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -833,18 +825,18 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
@@ -877,33 +869,33 @@
         <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01001A25-F706-477A-B50D-C4440140A47A}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D2D51A-4091-4D45-B336-91157A1F0FBB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -221,6 +221,33 @@
   </si>
   <si>
     <t>ULI JACKSON will get their HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>AKAFirst</t>
+  </si>
+  <si>
+    <t>AKALast</t>
+  </si>
+  <si>
+    <t>BERYL</t>
+  </si>
+  <si>
+    <t>TWIST</t>
+  </si>
+  <si>
+    <t>1 RODSLEY CRESCENT</t>
+  </si>
+  <si>
+    <t>LITTLEOVER</t>
+  </si>
+  <si>
+    <t>DE23 2NY</t>
+  </si>
+  <si>
+    <t>BERYL TWIST will get their HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>005_MAVIS-1812</t>
   </si>
 </sst>
 </file>
@@ -697,7 +724,9 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -817,8 +846,12 @@
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="F2" s="4">
         <v>3</v>
       </c>
@@ -994,13 +1027,13 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="16"/>
@@ -1056,32 +1089,66 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2011</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="N6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="11"/>
       <c r="W6" s="16"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D2D51A-4091-4D45-B336-91157A1F0FBB}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B017CDE7-01C0-4616-AC63-39DFC3715464}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>005_MAVIS-1812</t>
+  </si>
+  <si>
+    <t>006_MAVIS-1896</t>
+  </si>
+  <si>
+    <t>HELENA</t>
+  </si>
+  <si>
+    <t>HOYTE</t>
+  </si>
+  <si>
+    <t>1 WEST PARK PLACE</t>
+  </si>
+  <si>
+    <t>RETFORD</t>
+  </si>
+  <si>
+    <t>DN22 7PP</t>
+  </si>
+  <si>
+    <t>HELENA HOYTE will get their HPV vaccination at school</t>
   </si>
 </sst>
 </file>
@@ -725,7 +746,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,16 +1149,16 @@
       <c r="O6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="T6" s="4"/>
@@ -1151,32 +1172,66 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2011</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="11"/>
       <c r="W7" s="16"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B017CDE7-01C0-4616-AC63-39DFC3715464}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E4EA56-8039-486A-949F-0F5761BA46AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>HELENA HOYTE will get their HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>007_MAVIS-1781</t>
+  </si>
+  <si>
+    <t>NoNHS</t>
+  </si>
+  <si>
+    <t>NoNumber</t>
+  </si>
+  <si>
+    <t>NoNHS NoNumber will get their HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>10 WEST PARK PLACE</t>
+  </si>
+  <si>
+    <t>DN22 7PQ</t>
   </si>
 </sst>
 </file>
@@ -746,7 +764,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,32 +1252,66 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2011</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="11"/>
       <c r="W8" s="16"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42E4EA56-8039-486A-949F-0F5761BA46AD}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BE3AB5-F658-402D-A831-BEBF88561A15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>ScenarioID</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>DN22 7PQ</t>
+  </si>
+  <si>
+    <t>NonMatching</t>
+  </si>
+  <si>
+    <t>ConsentRecord</t>
+  </si>
+  <si>
+    <t>NonMatching ConsentRecord will get their HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>11 WEST PARK PLACE</t>
+  </si>
+  <si>
+    <t>008_MAVIS-1782</t>
   </si>
 </sst>
 </file>
@@ -764,7 +779,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,32 +1329,66 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2011</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="N9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="11"/>
       <c r="W9" s="16"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="Z9" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/chinmay_mudholkar1_nhs_net/Documents/VSCode/manage-vaccinations-in-schools-testing/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BE3AB5-F658-402D-A831-BEBF88561A15}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_29F4BEC57C55B9BE0851156AFB8CB70B9B9AF01E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{063BEE6B-4F59-419B-B309-2BB1A6D1DEAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>Vaccine already received in previous school</t>
   </si>
   <si>
-    <t>Your child will not get an HPV vaccination at school</t>
-  </si>
-  <si>
     <t>002_ChangeSchool</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>BANTON</t>
   </si>
   <si>
-    <t>Ravensdale Junior Schoo</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>DE24 8WE</t>
   </si>
   <si>
-    <t>MIKALA BANTON will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>003_ExpectedSchool</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>MyExtraSupport</t>
   </si>
   <si>
-    <t>You’ve given consent for your child to get an HPV vaccination</t>
-  </si>
-  <si>
     <t>004_MAVIS-1778</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>WHITLEY BAY</t>
   </si>
   <si>
-    <t>ULI JACKSON will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>AKAFirst</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>DE23 2NY</t>
   </si>
   <si>
-    <t>BERYL TWIST will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>005_MAVIS-1812</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>DN22 7PP</t>
   </si>
   <si>
-    <t>HELENA HOYTE will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>007_MAVIS-1781</t>
   </si>
   <si>
@@ -280,9 +259,6 @@
     <t>NoNumber</t>
   </si>
   <si>
-    <t>NoNHS NoNumber will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>10 WEST PARK PLACE</t>
   </si>
   <si>
@@ -295,13 +271,45 @@
     <t>ConsentRecord</t>
   </si>
   <si>
-    <t>NonMatching ConsentRecord will get their HPV vaccination at school</t>
-  </si>
-  <si>
     <t>11 WEST PARK PLACE</t>
   </si>
   <si>
     <t>008_MAVIS-1782</t>
+  </si>
+  <si>
+    <t>Consent refused
+You’ve told us that you do not want LIEN MAH to get the HPV vaccination at school</t>
+  </si>
+  <si>
+    <t>Consent given
+As you answered ‘yes’ to some of the health questions, we need to check the HPV vaccination is suitable for ABBY RESTON. We’ll review your answers and get in touch again soon.</t>
+  </si>
+  <si>
+    <t>Consent given
+ULI JACKSON is due to get the HPV vaccination at school on</t>
+  </si>
+  <si>
+    <t>Consent given
+BERYL TWIST is due to get the HPV vaccination at school on</t>
+  </si>
+  <si>
+    <t>Consent given
+HELENA HOYTE is due to get the HPV vaccination at school on</t>
+  </si>
+  <si>
+    <t>Consent given
+NoNHS NoNumber is due to get the HPV vaccination at school on</t>
+  </si>
+  <si>
+    <t>Consent given
+NonMatching ConsentRecord is due to get the HPV vaccination at school on</t>
+  </si>
+  <si>
+    <t>Ravensdale Junior School</t>
+  </si>
+  <si>
+    <t>Consent given
+MIKALA BANTON is due to get the HPV vaccination at school on</t>
   </si>
 </sst>
 </file>
@@ -424,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -471,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +789,8 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,10 +912,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4">
         <v>3</v>
@@ -946,19 +957,19 @@
       <c r="Y2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>36</v>
+      <c r="Z2" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -972,7 +983,7 @@
         <v>2011</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>30</v>
@@ -985,20 +996,20 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
@@ -1006,19 +1017,19 @@
       <c r="W3" s="16"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="3" t="s">
-        <v>46</v>
+      <c r="Z3" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
@@ -1045,50 +1056,50 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="X4" s="14"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="3" t="s">
-        <v>58</v>
+      <c r="Z4" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1115,22 +1126,22 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -1138,19 +1149,19 @@
       <c r="W5" s="16"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="3" t="s">
-        <v>66</v>
+      <c r="Z5" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1177,22 +1188,22 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -1200,19 +1211,19 @@
       <c r="W6" s="16"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="3" t="s">
-        <v>74</v>
+      <c r="Z6" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1239,22 +1250,22 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -1262,19 +1273,19 @@
       <c r="W7" s="16"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="3" t="s">
-        <v>82</v>
+      <c r="Z7" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
@@ -1301,22 +1312,22 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1324,19 +1335,19 @@
       <c r="W8" s="16"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="3" t="s">
-        <v>86</v>
+      <c r="Z8" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
@@ -1363,22 +1374,22 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1386,7 +1397,7 @@
       <c r="W9" s="16"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="18" t="s">
         <v>91</v>
       </c>
     </row>

--- a/test_data/ParentalConsent.xlsx
+++ b/test_data/ParentalConsent.xlsx
@@ -198,7 +198,7 @@
     <t>MyExtraSupport</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 As you answered ‘yes’ to some of the health questions, we need to check the HPV vaccination is suitable for ABBY RESTON. We’ll review your answers and get in touch again soon.</t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>NE26 2RA</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 ULI JACKSON is due to get the HPV vaccination at school on</t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>DE23 2NY</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 BERYL TWIST is due to get the HPV vaccination at school on</t>
   </si>
   <si>
@@ -267,7 +267,7 @@
     <t>DN22 7PP</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 HELENA HOYTE is due to get the HPV vaccination at school on</t>
   </si>
   <si>
@@ -286,7 +286,7 @@
     <t>DN22 7PQ</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 NoNHS NoNumber is due to get the HPV vaccination at school on</t>
   </si>
   <si>
@@ -302,7 +302,7 @@
     <t>11 WEST PARK PLACE</t>
   </si>
   <si>
-    <t>Consent given
+    <t>Consent confirmed
 NonMatching ConsentRecord is due to get the HPV vaccination at school on</t>
   </si>
 </sst>
